--- a/tests/performance/batch_100_files/xlsx/xlsx_011.xlsx
+++ b/tests/performance/batch_100_files/xlsx/xlsx_011.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,35 +422,27 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
+      <c r="A1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1" t="n">
+        <v>20</v>
+      </c>
+      <c r="C1">
+        <f>A1+B1</f>
+        <v/>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Item1</t>
-        </is>
+      <c r="A2" t="n">
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Item2</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>200</v>
+        <v>15</v>
+      </c>
+      <c r="C2">
+        <f>SUM(A2:B2)</f>
+        <v/>
       </c>
     </row>
   </sheetData>
